--- a/output/google_maps_data_Pasar_Tradisional_Bantul.xlsx
+++ b/output/google_maps_data_Pasar_Tradisional_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0858-0000-6889</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>-7.793526</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.793526</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.344195</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Janten/@-7.793526,110.2720968,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a581cc1eb3681:0x6cd460dd2c6d9e9c!8m2!3d-7.793526!4d110.3441946!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V04AEA!16s%2Fg%2F11cs4j2b6w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Janten/@-7.793526,110.2720968,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a581cc1eb3681:0x6cd460dd2c6d9e9c!8m2!3d-7.793526!4d110.3441946!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V04AEA!16s%2Fg%2F11cs4j2b6w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -544,25 +538,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>-7.829413</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.829413</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.343385</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Nirmala/@-7.793526,110.2720968,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57c6cb5703db:0x467cc8b9f9f57e08!8m2!3d-7.8294133!4d110.343385!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU4xT0Y4eVEwTm5FQUXgAQD6AQQIABA3!16s%2Fg%2F11q42m5jwz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Nirmala/@-7.793526,110.2720968,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57c6cb5703db:0x467cc8b9f9f57e08!8m2!3d-7.8294133!4d110.343385!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU4xT0Y4eVEwTm5FQUXgAQD6AQQIABA3!16s%2Fg%2F11q42m5jwz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -581,25 +574,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>-7.885056</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.885056</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.330636</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bantul/@-7.8850563,110.2585379,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff55f930b30b:0xcb3ed7dbcb8082fc!8m2!3d-7.8850563!4d110.3306357!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MT1RsUFVWRjNFQUXgAQD6AQQIABBJ!16s%2Fg%2F1yg578294?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bantul/@-7.8850563,110.2585379,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff55f930b30b:0xcb3ed7dbcb8082fc!8m2!3d-7.8850563!4d110.3306357!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MT1RsUFVWRjNFQUXgAQD6AQQIABBJ!16s%2Fg%2F1yg578294?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -618,25 +610,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.82923</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.82923</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.343348</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Desa+Tirtonirmolo/@-7.8292303,110.27125,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57ed4594e55d:0xb2e6dd9d93b0a1cd!8m2!3d-7.8292303!4d110.3433478!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU54TFdOSVZFbFJFQUXgAQD6AQUI1gEQPw!16s%2Fg%2F11ghp085p0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Desa+Tirtonirmolo/@-7.8292303,110.27125,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57ed4594e55d:0xb2e6dd9d93b0a1cd!8m2!3d-7.8292303!4d110.3433478!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU54TFdOSVZFbFJFQUXgAQD6AQUI1gEQPw!16s%2Fg%2F11ghp085p0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -655,25 +646,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.840031</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.840031</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.350342</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Niten+Baru/@-7.8292303,110.27125,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a579b9e089ad3:0xdda6c4b72729996c!8m2!3d-7.8400311!4d110.3503417!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oZFRkeFJVOUJFQUXgAQD6AQQIABA1!16s%2Fg%2F11fd7323xw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Niten+Baru/@-7.8292303,110.27125,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a579b9e089ad3:0xdda6c4b72729996c!8m2!3d-7.8400311!4d110.3503417!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oZFRkeFJVOUJFQUXgAQD6AQQIABA1!16s%2Fg%2F11fd7323xw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -692,25 +682,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.805351</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.805351</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.334609</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Pangestu+Pasar+Desa+Ngestiharjo/@-7.8292303,110.27125,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a571d672adbe5:0xecc3201a4676f1c9!8m2!3d-7.8053508!4d110.3346087!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVIwTm1KVVExWkJFQUXgAQD6AQQIABA0!16s%2Fg%2F11gnj19yqr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -725,25 +714,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.802571</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.802571</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.411936</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Bantengan/@-7.8025709,110.3398384,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a575ae9f66fad:0xd060a0fc0aa25a30!8m2!3d-7.8025709!4d110.4119362!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU50Y0ZrM2FsRjNFQUXgAQD6AQQIABBA!16s%2Fg%2F11byyf3rxy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -758,25 +746,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>-7.828882</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.828882</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.409437</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Desa+Baturetno/@-7.8025709,110.3398384,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57247311efe3:0x2300878644a4fcaa!8m2!3d-7.8288819!4d110.4094371!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11f3rhdscj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -791,25 +778,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-7.82268</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.82268</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.425798</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Potorono/@-7.8025709,110.3398384,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5732b60f8eeb:0x23624885a2e35be5!8m2!3d-7.8226801!4d110.4257975!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DZGpWaVZsUm5FQUXgAQD6AQQIABBJ!16s%2Fg%2F11bw1gv613?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Potorono/@-7.8025709,110.3398384,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5732b60f8eeb:0x23624885a2e35be5!8m2!3d-7.8226801!4d110.4257975!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DZGpWaVZsUm5FQUXgAQD6AQQIABBJ!16s%2Fg%2F11bw1gv613?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -828,25 +814,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.829726</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.829726</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.418152</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngipik+Baru+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%94%EA%A6%B6%EA%A6%A5%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%A7%EA%A6%AB%EA%A6%B8)/@-7.8025709,110.3398384,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57293325863f:0x98b384f6fb8a76ed!8m2!3d-7.8297262!4d110.4181523!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ITnkxTFJVbFJFQUXgAQD6AQQITxAc!16s%2Fg%2F11c1rty0wd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngipik+Baru+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%94%EA%A6%B6%EA%A6%A5%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%A7%EA%A6%AB%EA%A6%B8)/@-7.8025709,110.3398384,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57293325863f:0x98b384f6fb8a76ed!8m2!3d-7.8297262!4d110.4181523!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ITnkxTFJVbFJFQUXgAQD6AQQITxAc!16s%2Fg%2F11c1rty0wd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -865,25 +850,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.866094</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.866094</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.406776</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pleret/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a56bcb4bf95dd:0x1b01a9b253b44214!8m2!3d-7.8660936!4d110.4067763!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVE1ZDAxRE4xaG5FQUXgAQD6AQQIABA-!16s%2Fg%2F11cp5hgc_1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pleret/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a56bcb4bf95dd:0x1b01a9b253b44214!8m2!3d-7.8660936!4d110.4067763!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVE1ZDAxRE4xaG5FQUXgAQD6AQQIABA-!16s%2Fg%2F11cp5hgc_1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -902,25 +886,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>-7.829467</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.829467</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.418168</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Plakaran/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a572932d3b293:0x2326ed1699f7f0f0!8m2!3d-7.8294673!4d110.4181679!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySAQ5wcm9kdWNlX21hcmtldOABAA!16s%2Fg%2F11c5b0z629?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Plakaran/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a572932d3b293:0x2326ed1699f7f0f0!8m2!3d-7.8294673!4d110.4181679!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySAQ5wcm9kdWNlX21hcmtldOABAA!16s%2Fg%2F11c5b0z629?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -940,22 +923,21 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.847195</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.847195</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.407476</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a574119e0a773:0xac1c75f800a66b4a!8m2!3d-7.8471948!4d110.407476!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySAQZtYXJrZXTgAQA!16s%2Fg%2F11hdvvs2qk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -970,25 +952,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.882014</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.882014</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.374656</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kepek+Timbulharjo/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a555b43be6331:0xa2e3e3e851310360!8m2!3d-7.8820137!4d110.3746562!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJUYVY5WWIxWm5FQUXgAQD6AQUIwQEQQA!16s%2Fg%2F11j15kl_lp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kepek+Timbulharjo/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a555b43be6331:0xa2e3e3e851310360!8m2!3d-7.8820137!4d110.3746562!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJUYVY5WWIxWm5FQUXgAQD6AQUIwQEQQA!16s%2Fg%2F11j15kl_lp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1011,25 +992,24 @@
           <t>0851-0184-4760</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>-7.852548</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.852548</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.374334</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngoto%2FTriwindhu/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a565eca16c08b:0xd76056803524efaa!8m2!3d-7.8525478!4d110.3743343!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU0yY2pjeU1uWlJSUkFC4AEA-gEECAAQKg!16s%2Fg%2F11cn3041q8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngoto%2FTriwindhu/@-7.8660936,110.3346785,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a565eca16c08b:0xd76056803524efaa!8m2!3d-7.8525478!4d110.3743343!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU0yY2pjeU1uWlJSUkFC4AEA-gEECAAQKg!16s%2Fg%2F11cn3041q8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1048,25 +1028,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>-7.839354</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.839354</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.350662</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Klitikan+Niten/@-7.8393543,110.2785641,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5634e9fcb467:0x30f998af9766de2e!8m2!3d-7.8393543!4d110.3506619!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxTjJaUE0yeDNSUkFC4AEA-gEECAAQRA!16s%2Fg%2F11fzfbtf32?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Klitikan+Niten/@-7.8393543,110.2785641,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5634e9fcb467:0x30f998af9766de2e!8m2!3d-7.8393543!4d110.3506619!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxTjJaUE0yeDNSUkFC4AEA-gEECAAQRA!16s%2Fg%2F11fzfbtf32?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1085,25 +1064,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.828331</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.828331</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.399795</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Legi+Kotagede/@-7.8283312,110.3276971,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5718fb6c5bf7:0x8bea519e87424677!8m2!3d-7.8283312!4d110.3997949!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F1ptw49sl1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Legi+Kotagede/@-7.8283312,110.3276971,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5718fb6c5bf7:0x8bea519e87424677!8m2!3d-7.8283312!4d110.3997949!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F1ptw49sl1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>17 jam lalu</t>
         </is>
@@ -1122,25 +1100,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>-7.913143</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.913143</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.372266</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Barongan/@-7.9131428,110.3001678,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5663df322d19:0x35c8607dfd9fb010!8m2!3d-7.9131428!4d110.3722656!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MTFc5SFUyeEJSUkFC4AEA-gEECAAQSA!16s%2Fg%2F11b67qty35?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Barongan/@-7.9131428,110.3001678,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5663df322d19:0x35c8607dfd9fb010!8m2!3d-7.9131428!4d110.3722656!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MTFc5SFUyeEJSUkFC4AEA-gEECAAQSA!16s%2Fg%2F11b67qty35?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1159,25 +1136,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>-7.808128</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.808128</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.360019</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngasem/@-7.8081285,110.287921,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5792252f4e3f:0x36fbd296a07c1da7!8m2!3d-7.8081285!4d110.3600188!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F11b5m2phht?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngasem/@-7.8081285,110.287921,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5792252f4e3f:0x36fbd296a07c1da7!8m2!3d-7.8081285!4d110.3600188!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F11b5m2phht?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>22 menit lalu</t>
         </is>
@@ -1196,25 +1172,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.884375</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.884375</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.325017</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kliwon+Bantul/@-7.8843748,110.252919,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff540ab60287:0x6b776cf58190f1ba!8m2!3d-7.8843748!4d110.3250168!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEPc2hvcHBpbmdfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU55Tm5SRE1HNW5SUkFC4AEA-gEECAAQLw!16s%2Fg%2F11hcfq_799?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kliwon+Bantul/@-7.8843748,110.252919,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff540ab60287:0x6b776cf58190f1ba!8m2!3d-7.8843748!4d110.3250168!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEPc2hvcHBpbmdfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU55Tm5SRE1HNW5SUkFC4AEA-gEECAAQLw!16s%2Fg%2F11hcfq_799?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1238,22 +1213,21 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-7.850869</v>
+      </c>
       <c r="G22" t="n">
-        <v>-7.850869</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.358518</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Paguyuban+Jemparingan+Saraswati/@-7.8843748,110.252919,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57e3a38dd637:0x372ef087459a35e8!8m2!3d-7.850869!4d110.358518!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11v0_f4_qj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1268,25 +1242,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.3</v>
+        <v>-7.859442</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.859442</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.42437</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Desa+Ngablak/@-7.8594421,110.3522717,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a56b4b9a953a3:0x865db845b04b228b!8m2!3d-7.8594421!4d110.4243695!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ3YVdabFV6ZFJSUkFC4AEA-gEECAAQJg!16s%2Fg%2F11b7q67jp3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Desa+Ngablak/@-7.8594421,110.3522717,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a56b4b9a953a3:0x865db845b04b228b!8m2!3d-7.8594421!4d110.4243695!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ3YVdabFV6ZFJSUkFC4AEA-gEECAAQJg!16s%2Fg%2F11b7q67jp3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1305,25 +1278,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.799185</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.799185</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.366411</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Klithikan+Sentir/@-7.799185,110.2943132,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a574ad93fa65b:0x639a17d59161ac8c!8m2!3d-7.799185!4d110.366411!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgELZmxlYV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVOeTFwWTA5UkVBReABAPoBBAgAED4!16s%2Fg%2F11rg18dtlb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Klithikan+Sentir/@-7.799185,110.2943132,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a574ad93fa65b:0x639a17d59161ac8c!8m2!3d-7.799185!4d110.366411!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgELZmxlYV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVOeTFwWTA5UkVBReABAPoBBAgAED4!16s%2Fg%2F11rg18dtlb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -1346,25 +1318,24 @@
           <t>0813-2758-7327</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.835947</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.835947</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.35146</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Siwe+Seni+Batik/@-7.799185,110.2943132,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57c6b7e9eacf:0x2b2743434bdeec5f!8m2!3d-7.8359472!4d110.3514604!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11j18qdx0s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Siwe+Seni+Batik/@-7.799185,110.2943132,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57c6b7e9eacf:0x2b2743434bdeec5f!8m2!3d-7.8359472!4d110.3514604!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11j18qdx0s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1383,25 +1354,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.955602</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.955602</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.346527</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pundong/@-7.9556016,110.2744288,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a554e9280498d:0x747f99bf986e0c8d!8m2!3d-7.9556016!4d110.3465266!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5uZG5SNVdGOVJSUkFC4AEA-gEECAAQQQ!16s%2Fg%2F1pzw68w1q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pundong/@-7.9556016,110.2744288,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a554e9280498d:0x747f99bf986e0c8d!8m2!3d-7.9556016!4d110.3465266!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5uZG5SNVdGOVJSUkFC4AEA-gEECAAQQQ!16s%2Fg%2F1pzw68w1q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1420,25 +1390,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>-7.829019</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.829019</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.453848</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wage/@-7.8290195,110.3817503,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a50e117b86db5:0xc27b9c361050e8e6!8m2!3d-7.8290195!4d110.4538481!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MY1dSMWEyTkJFQUXgAQD6AQQIABBC!16s%2Fg%2F11bzrkv4j2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wage/@-7.8290195,110.3817503,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a50e117b86db5:0xc27b9c361050e8e6!8m2!3d-7.8290195!4d110.4538481!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MY1dSMWEyTkJFQUXgAQD6AQQIABBC!16s%2Fg%2F11bzrkv4j2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1457,25 +1426,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>-7.970226</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.970226</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.311106</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Turi/@-7.9702264,110.2390077,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7b00190dd47cfd:0x3c15bdecb68fbd90!8m2!3d-7.9702264!4d110.3111055!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYZFY5WFNEaDNSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11c0r5042l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Turi/@-7.9702264,110.2390077,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7b00190dd47cfd:0x3c15bdecb68fbd90!8m2!3d-7.9702264!4d110.3111055!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYZFY5WFNEaDNSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11c0r5042l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1494,25 +1462,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>-7.852906</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.852906</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.250436</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sungapan/@-7.8529057,110.178338,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7af9702c88a56d:0x6c0b9bb41a614442!8m2!3d-7.8529057!4d110.2504358!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEOcHJvZHVjZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVNRXRwZW5aM1JSQULgAQD6AQQIABAq!16s%2Fg%2F11b77pvzt1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sungapan/@-7.8529057,110.178338,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7af9702c88a56d:0x6c0b9bb41a614442!8m2!3d-7.8529057!4d110.2504358!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEOcHJvZHVjZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVNRXRwZW5aM1JSQULgAQD6AQQIABAq!16s%2Fg%2F11b77pvzt1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1531,25 +1498,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>-7.876769</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.876769</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.349973</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Seni+Gabusan+(PSG)/@-7.8767695,110.2778751,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a560a37f32bc1:0x6a032baa8ed60b15!8m2!3d-7.8767695!4d110.3499729!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V04AEA!16s%2Fg%2F1pzyqds62?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Seni+Gabusan+(PSG)/@-7.8767695,110.2778751,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a560a37f32bc1:0x6a032baa8ed60b15!8m2!3d-7.8767695!4d110.3499729!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V04AEA!16s%2Fg%2F1pzyqds62?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>5 jam lalu</t>
         </is>
@@ -1568,25 +1534,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>-7.80185</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.80185</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.377199</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sentul+Yogyakarta/@-7.8018497,110.305101,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5782135700a9:0x9f5e811571ff616d!8m2!3d-7.8018497!4d110.3771988!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJpZERoaWFHSlJFQUXgAQD6AQQIABBH!16s%2Fg%2F1hm4q9lb_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sentul+Yogyakarta/@-7.8018497,110.305101,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5782135700a9:0x9f5e811571ff616d!8m2!3d-7.8018497!4d110.3771988!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJpZERoaWFHSlJFQUXgAQD6AQQIABBH!16s%2Fg%2F1hm4q9lb_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1605,25 +1570,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>-7.825182</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.825182</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.355093</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Satwa+dan+Tanaman+Hias+Yogyakarta+(PASTY)/@-7.8018497,110.305101,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57c7f7d8553b:0xa542b2a515032e3a!8m2!3d-7.8251816!4d110.3550926!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEJcGV0X3N0b3Jl4AEA!16s%2Fg%2F11bc6vk793?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Satwa+dan+Tanaman+Hias+Yogyakarta+(PASTY)/@-7.8018497,110.305101,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57c7f7d8553b:0xa542b2a515032e3a!8m2!3d-7.8251816!4d110.3550926!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEJcGV0X3N0b3Jl4AEA!16s%2Fg%2F11bc6vk793?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -1646,25 +1610,24 @@
           <t>0858-6825-8100</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.2</v>
+        <v>-7.909137</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.909137</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.351851</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bakulan/@-7.9091366,110.2797535,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a55979dc4a3db:0xeb191abc7434e58f!8m2!3d-7.9091366!4d110.3518513!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJIWjNGdVJ6TlJSUkFC4AEA-gEECAAQMQ!16s%2Fg%2F11clvsw7z6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bakulan/@-7.9091366,110.2797535,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a55979dc4a3db:0xeb191abc7434e58f!8m2!3d-7.9091366!4d110.3518513!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJIWjNGdVJ6TlJSUkFC4AEA-gEECAAQMQ!16s%2Fg%2F11clvsw7z6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1683,25 +1646,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>-7.933293</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.933293</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.263651</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Mangiran/@-7.9332931,110.191553,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7afe5bab4844e1:0x8aa282795d01e098!8m2!3d-7.9332931!4d110.2636508!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU54WjNSTWRUbG5SUkFC4AEA-gEECAAQOA!16s%2Fg%2F11bvt9rxry?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Mangiran/@-7.9332931,110.191553,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7afe5bab4844e1:0x8aa282795d01e098!8m2!3d-7.9332931!4d110.2636508!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU54WjNSTWRUbG5SUkFC4AEA-gEECAAQOA!16s%2Fg%2F11bvt9rxry?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1720,25 +1682,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>-7.884414</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.884414</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.330119</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Belakang+Pasar+Bantul/@-7.884414,110.2580209,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff0066479783:0x825711b5c207bfff!8m2!3d-7.884414!4d110.3301187!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU14YzNSeVpXcFJSUkFC4AEA-gEECD4QPg!16s%2Fg%2F11vk6tqzgk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Belakang+Pasar+Bantul/@-7.884414,110.2580209,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff0066479783:0x825711b5c207bfff!8m2!3d-7.884414!4d110.3301187!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU14YzNSeVpXcFJSUkFC4AEA-gEECD4QPg!16s%2Fg%2F11vk6tqzgk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1757,25 +1718,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.916758</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.916758</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.38174</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Imogiri+Bantul/@-7.9167581,110.3096425,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5455081ed15b:0xb77942b9cbe913dc!8m2!3d-7.9167581!4d110.3817403!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEOcHJvZHVjZV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxhV1F6VlZKQkVBReABAPoBBAgAEDo!16s%2Fg%2F11cjpb0yt8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Imogiri+Bantul/@-7.9167581,110.3096425,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5455081ed15b:0xb77942b9cbe913dc!8m2!3d-7.9167581!4d110.3817403!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEOcHJvZHVjZV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxhV1F6VlZKQkVBReABAPoBBAgAEDo!16s%2Fg%2F11cjpb0yt8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1798,25 +1758,24 @@
           <t>0819-1555-2076</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>-7.876476</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.876476</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.373325</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Seduhan+Jamu+Tangkur+Ramuan+Tradisional/@-7.9167581,110.3096425,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a573dbdf9f4ab:0x61e23f4b44b88804!8m2!3d-7.8764757!4d110.3733254!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11hzv3m23b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Seduhan+Jamu+Tangkur+Ramuan+Tradisional/@-7.9167581,110.3096425,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a573dbdf9f4ab:0x61e23f4b44b88804!8m2!3d-7.8764757!4d110.3733254!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11hzv3m23b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1835,25 +1794,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>-7.824557</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.824557</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.373333</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+TELO+KARANGKAJEN/@-7.824557,110.3012352,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57a67b5c9edd:0xe839e384ca221f5!8m2!3d-7.824557!4d110.373333!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ4T1RRek1raG5FQUXgAQD6AQUImgEQRA!16s%2Fg%2F11gg70mrd3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+TELO+KARANGKAJEN/@-7.824557,110.3012352,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57a67b5c9edd:0xe839e384ca221f5!8m2!3d-7.824557!4d110.373333!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ4T1RRek1raG5FQUXgAQD6AQUImgEQRA!16s%2Fg%2F11gg70mrd3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1872,25 +1830,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.4</v>
+        <v>-7.827449</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.827449</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.367815</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+RAKYAT+GUMREGAH+(SEKATEN)/@-7.824557,110.3012352,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5733f9ae481f:0x9041db7719a75a4c!8m2!3d-7.8274485!4d110.3678152!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEMbmlnaHRfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DYlU4M1UydEJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F11tck3v5z5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+RAKYAT+GUMREGAH+(SEKATEN)/@-7.824557,110.3012352,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5733f9ae481f:0x9041db7719a75a4c!8m2!3d-7.8274485!4d110.3678152!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEMbmlnaHRfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DYlU4M1UydEJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F11tck3v5z5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1909,25 +1866,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.4</v>
+        <v>-7.973136</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.973136</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.318475</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Angkruksari+Baru/@-7.9731364,110.2463768,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7b001ab11870fb:0x5c5268edf9ebd3a0!8m2!3d-7.9731364!4d110.3184746!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYTWxsMVIzcFJSUkFC4AEA-gEECAAQOw!16s%2Fg%2F11c6wl5scq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Angkruksari+Baru/@-7.9731364,110.2463768,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7b001ab11870fb:0x5c5268edf9ebd3a0!8m2!3d-7.9731364!4d110.3184746!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYTWxsMVIzcFJSUkFC4AEA-gEECAAQOw!16s%2Fg%2F11c6wl5scq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -1946,25 +1902,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.4</v>
+        <v>-7.836093</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.836093</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.471031</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Piyungan/@-7.8360933,110.3989335,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a51a595348e9b:0x3cc1a2495d3f38e0!8m2!3d-7.8360933!4d110.4710313!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5PWDBseGNtMW5SUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11fx648dgj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1983,25 +1938,24 @@
           <t>0878-3889-5533</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.4</v>
+        <v>-7.970888</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.970888</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.257624</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sorobayan+%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%B1%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A6%AA%EA%A6%A4%EA%A7%80/@-7.9708882,110.1855265,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7b01e0c66b89b3:0x59e1d0e19fc9406b!8m2!3d-7.9708882!4d110.2576243!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI2ZFhOaVJWUkJFQUXgAQD6AQQIABBJ!16s%2Fg%2F11bxdxfzmk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sorobayan+%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%B1%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A6%AA%EA%A6%A4%EA%A7%80/@-7.9708882,110.1855265,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7b01e0c66b89b3:0x59e1d0e19fc9406b!8m2!3d-7.9708882!4d110.2576243!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI2ZFhOaVJWUkJFQUXgAQD6AQQIABBJ!16s%2Fg%2F11bxdxfzmk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2020,25 +1974,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.4</v>
+        <v>-7.928052</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.928052</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.322768</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gatak%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%92%EA%A6%A0%EA%A6%8F%EA%A7%80/@-7.9280525,110.25067,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff846895b06f:0xed88d62f0e9e4c09!8m2!3d-7.9280525!4d110.3227678!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEOcHJvZHVjZV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXllblpmVGtKM0VBReABAPoBBAgAEDk!16s%2Fg%2F11b64fv2zb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gatak%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%92%EA%A6%A0%EA%A6%8F%EA%A7%80/@-7.9280525,110.25067,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff846895b06f:0xed88d62f0e9e4c09!8m2!3d-7.9280525!4d110.3227678!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEOcHJvZHVjZV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXllblpmVGtKM0VBReABAPoBBAgAEDk!16s%2Fg%2F11b64fv2zb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2057,25 +2010,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.5</v>
+        <v>-7.870582</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.870582</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.391197</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/pasar+wonokromo+jejeran/@-7.870582,110.3190992,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a577be6661449:0x3cf4d22cbdd07328!8m2!3d-7.870582!4d110.391197!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vZUc5NmJGRm5FQUXgAQD6AQQIABBG!16s%2Fg%2F11rrgbg_q8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/pasar+wonokromo+jejeran/@-7.870582,110.3190992,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a577be6661449:0x3cf4d22cbdd07328!8m2!3d-7.870582!4d110.391197!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vZUc5NmJGRm5FQUXgAQD6AQQIABBG!16s%2Fg%2F11rrgbg_q8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2094,25 +2046,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.5</v>
+        <v>-7.91052</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.91052</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.311561</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+JODOG/@-7.9105199,110.2394628,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff60098bd545:0x33bc1f0cf2fa023f!8m2!3d-7.9105199!4d110.3115606!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyYzJKeFgwVm5FQUXgAQD6AQQIABBD!16s%2Fg%2F11fk0hzx4t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+JODOG/@-7.9105199,110.2394628,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7aff60098bd545:0x33bc1f0cf2fa023f!8m2!3d-7.9105199!4d110.3115606!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyYzJKeFgwVm5FQUXgAQD6AQQIABBD!16s%2Fg%2F11fk0hzx4t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2131,25 +2082,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.997049</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.997049</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.249801</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Pantai+GOA+CEMARA/@-7.9970485,110.1777028,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7b0190676705f5:0x9c39035ad868d14a!8m2!3d-7.9970485!4d110.2498006!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5sZVhReVJIcG5SUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11ggsfwjw0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Pantai+GOA+CEMARA/@-7.9970485,110.1777028,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7b0190676705f5:0x9c39035ad868d14a!8m2!3d-7.9970485!4d110.2498006!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5sZVhReVJIcG5SUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11ggsfwjw0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2168,25 +2118,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.815686</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.815686</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.354892</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Condronegaran/@-7.8156858,110.2827945,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57c06aaaaaab:0x42ed710c4d2490d4!8m2!3d-7.8156858!4d110.3548923!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU54YVRRM2IyaDNSUkFC4AEA-gEECCIQRA!16s%2Fg%2F11b6cl0vh8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Condronegaran/@-7.8156858,110.2827945,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a57c06aaaaaab:0x42ed710c4d2490d4!8m2!3d-7.8156858!4d110.3548923!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU54YVRRM2IyaDNSUkFC4AEA-gEECCIQRA!16s%2Fg%2F11b6cl0vh8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2213,25 +2162,24 @@
           <t>0822-4187-5799</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>-7.835763</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.835763</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.362271</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Desa/@-7.8156858,110.2827945,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5762a38775a9:0x9b4193b3bd8f773b!8m2!3d-7.8357632!4d110.362271!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySAQVzdG9yZeABAA!16s%2Fg%2F11j5w2gx4n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Desa/@-7.8156858,110.2827945,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a5762a38775a9:0x9b4193b3bd8f773b!8m2!3d-7.8357632!4d110.362271!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWySAQVzdG9yZeABAA!16s%2Fg%2F11j5w2gx4n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2250,25 +2198,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.6</v>
+        <v>-7.942241</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.942241</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.303217</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+GROGOL+bambanglipuro/@-7.9422407,110.2311187,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7affb2c236e361:0x48e850d90671622c!8m2!3d-7.9422407!4d110.3032165!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyYTBwbGVUbFJSUkFC4AEA-gEECCUQHg!16s%2Fg%2F11nxqlc85z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+GROGOL+bambanglipuro/@-7.9422407,110.2311187,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7affb2c236e361:0x48e850d90671622c!8m2!3d-7.9422407!4d110.3032165!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyYTBwbGVUbFJSUkFC4AEA-gEECCUQHg!16s%2Fg%2F11nxqlc85z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2287,25 +2234,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.6</v>
+        <v>-7.826778</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.826778</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.489633</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Kembangsari/@-7.8267784,110.417535,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a504c3959d399:0xce57e235d80f8607!8m2!3d-7.8267784!4d110.4896328!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0ZDAxWE5GWkJFQUXgAQD6AQQIABA9!16s%2Fg%2F11g72x3t3f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2320,25 +2266,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.3</v>
+        <v>-7.916971</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.916971</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.400058</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Jolontoro+Karangkulon/@-7.9169714,110.3279606,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a55a6dcc67a11:0x19cc3e79c3edbb17!8m2!3d-7.9169714!4d110.4000584!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5ITFV4MVJtNUJSUkFC4AEA-gEECAAQHg!16s%2Fg%2F11fmfz6g4v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2353,25 +2298,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.4</v>
+        <v>-7.933995</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.933995</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.46353</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A2%EA%A7%80%EA%A6%AD%EA%A6%B6%EA%A6%94%EA%A6%BA%EA%A6%B4+Pasar+Dlingo/@-7.9339945,110.391432,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a531840190241:0xbd77a41e057c9b98!8m2!3d-7.9339945!4d110.4635298!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgEOcHJvZHVjZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkxiQzF5U1ROblJSQULgAQD6AQQIABA5!16s%2Fg%2F11b72l4rcj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2390,25 +2334,24 @@
           <t>0852-2756-8408</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.847942</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.847942</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.39844</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AHY+ANEKA+HERBAL+YOGYAKARTA/@-7.8479418,110.3263422,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a579265535e43:0xa82736b0e1587780!8m2!3d-7.8479418!4d110.39844!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F11pf1t3g60?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/AHY+ANEKA+HERBAL+YOGYAKARTA/@-7.8479418,110.3263422,13z/data=!4m11!1m3!2m2!1sPasar+Tradisional+Bantul!6e1!3m6!1s0x2e7a579265535e43:0xa82736b0e1587780!8m2!3d-7.8479418!4d110.39844!15sChhQYXNhciBUcmFkaXNpb25hbCBCYW50dWxaGiIYcGFzYXIgdHJhZGlzaW9uYWwgYmFudHVskgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F11pf1t3g60?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
